--- a/biology/Zoologie/Abyssosaurus/Abyssosaurus.xlsx
+++ b/biology/Zoologie/Abyssosaurus/Abyssosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abyssosaurus nataliae
 Abyssosaurus est un genre fossile de plésiosaures de la famille des Cryptoclididae, ayant vécu au Crétacé inférieur. Le genre compte une seule espèce, Abyssosaurus nataliae.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abyssosaurus a été décrit en 2011 sur la base de fossiles mis au jour en Tchouvachie, en Russie européenne. 
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (10 juillet 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (10 juillet 2019) :
 † Abyssosaurus nataliae Berezin, 2011 (espèce type)</t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, le cladogramme des Cryptoclididae basé d'après Roberts et al. (2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, le cladogramme des Cryptoclididae basé d'après Roberts et al. (2020) :
 </t>
         </is>
       </c>
